--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_12.11.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>136.31</v>
+        <v>14.4</v>
       </c>
       <c r="H3" t="n">
-        <v>135.53</v>
+        <v>14.497</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7800000000000011</v>
+        <v>0.09699999999999953</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5700000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>134.66</v>
+        <v>14.386</v>
       </c>
       <c r="H4" t="n">
-        <v>135.22</v>
+        <v>14.399</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.0129999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.42</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -593,13 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>short</t>
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>135.58</v>
+        <v>350.5</v>
       </c>
       <c r="H5" t="n">
-        <v>135.34</v>
+        <v>349.76</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.7400000000000091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -640,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7027.5</v>
+        <v>1241.2</v>
       </c>
       <c r="H6" t="n">
-        <v>7023</v>
+        <v>1244.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.399999999999864</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7013</v>
+        <v>1240.2</v>
       </c>
       <c r="H7" t="n">
-        <v>7016.5</v>
+        <v>1244.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6997.5</v>
+        <v>1235</v>
       </c>
       <c r="H8" t="n">
-        <v>7005.5</v>
+        <v>1237.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -743,16 +753,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -761,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7009.5</v>
+        <v>136.31</v>
       </c>
       <c r="H9" t="n">
-        <v>7006.5</v>
+        <v>135.53</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>-0.7800000000000011</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -779,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -790,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>490.9</v>
+        <v>134.66</v>
       </c>
       <c r="H10" t="n">
-        <v>490.4</v>
+        <v>135.22</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -828,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -837,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>490.15</v>
+        <v>7027.5</v>
       </c>
       <c r="H11" t="n">
-        <v>488.8</v>
+        <v>7023</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.349999999999966</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.28</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
@@ -855,13 +867,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>long</t>
@@ -873,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>486.15</v>
+        <v>7013</v>
       </c>
       <c r="H12" t="n">
-        <v>484.5</v>
+        <v>7016.5</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.649999999999977</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.34</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -902,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -911,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>941.6</v>
+        <v>6997.5</v>
       </c>
       <c r="H13" t="n">
-        <v>944</v>
+        <v>7005.5</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.399999999999977</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.25</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -949,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>940.4</v>
+        <v>37.895</v>
       </c>
       <c r="H14" t="n">
-        <v>937.2</v>
+        <v>38.025</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.199999999999932</v>
+        <v>0.1299999999999955</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.34</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
@@ -967,13 +981,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>short</t>
@@ -985,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>937.4</v>
+        <v>38.05</v>
       </c>
       <c r="H15" t="n">
-        <v>935.8</v>
+        <v>38.12</v>
       </c>
       <c r="I15" t="n">
-        <v>1.600000000000023</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="J15" t="n">
-        <v>0.17</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="16">
@@ -1023,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>37.895</v>
+        <v>37.965</v>
       </c>
       <c r="H16" t="n">
-        <v>38.025</v>
+        <v>38.11</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1299999999999955</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="J16" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17">
@@ -1041,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1061,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>38.05</v>
+        <v>107.3</v>
       </c>
       <c r="H17" t="n">
-        <v>38.12</v>
+        <v>106.86</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.18</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="18">
@@ -1079,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1099,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>37.965</v>
+        <v>106.64</v>
       </c>
       <c r="H18" t="n">
-        <v>38.11</v>
+        <v>106.32</v>
       </c>
       <c r="I18" t="n">
-        <v>0.144999999999996</v>
+        <v>-0.3200000000000074</v>
       </c>
       <c r="J18" t="n">
-        <v>0.38</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1128,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1137,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1241.2</v>
+        <v>2798.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1244.6</v>
+        <v>2790.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399999999999864</v>
+        <v>8.150000000000091</v>
       </c>
       <c r="J19" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="20">
@@ -1155,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1175,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1240.2</v>
+        <v>2783.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1244.8</v>
+        <v>2786.35</v>
       </c>
       <c r="I20" t="n">
-        <v>4.599999999999909</v>
+        <v>2.849999999999909</v>
       </c>
       <c r="J20" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1193,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1213,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1235</v>
+        <v>2776.05</v>
       </c>
       <c r="H21" t="n">
-        <v>1237.8</v>
+        <v>2783.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.799999999999955</v>
+        <v>7.849999999999909</v>
       </c>
       <c r="J21" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1251,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>81.22</v>
+        <v>941.6</v>
       </c>
       <c r="H22" t="n">
-        <v>81.03</v>
+        <v>944</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1899999999999977</v>
+        <v>-2.399999999999977</v>
       </c>
       <c r="J22" t="n">
-        <v>0.23</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1289,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>80.78</v>
+        <v>940.4</v>
       </c>
       <c r="H23" t="n">
-        <v>80.62</v>
+        <v>937.2</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-3.199999999999932</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.2</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="24">
@@ -1307,13 +1323,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>short</t>
@@ -1325,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80.77</v>
+        <v>490.9</v>
       </c>
       <c r="H24" t="n">
-        <v>80.95999999999999</v>
+        <v>490.4</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1899999999999977</v>
+        <v>0.5</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.24</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1354,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1363,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>14.58</v>
+        <v>490.15</v>
       </c>
       <c r="H25" t="n">
-        <v>14.47</v>
+        <v>488.8</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1099999999999994</v>
+        <v>-1.349999999999966</v>
       </c>
       <c r="J25" t="n">
-        <v>0.75</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="26">
@@ -1381,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1392,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1401,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>14.4</v>
+        <v>599.1</v>
       </c>
       <c r="H26" t="n">
-        <v>14.497</v>
+        <v>596.3</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09699999999999953</v>
+        <v>2.800000000000068</v>
       </c>
       <c r="J26" t="n">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1439,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>14.386</v>
+        <v>594.1</v>
       </c>
       <c r="H27" t="n">
-        <v>14.399</v>
+        <v>594</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01300000000000168</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28">
@@ -1457,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1477,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>107.3</v>
+        <v>595</v>
       </c>
       <c r="H28" t="n">
-        <v>106.86</v>
+        <v>593.6</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4399999999999977</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="J28" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
@@ -1495,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1506,7 +1524,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1515,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>106.64</v>
+        <v>81.22</v>
       </c>
       <c r="H29" t="n">
-        <v>106.32</v>
+        <v>81.03</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3200000000000074</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="30">
@@ -1533,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1544,7 +1562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1553,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>350.5</v>
+        <v>80.78</v>
       </c>
       <c r="H30" t="n">
-        <v>349.76</v>
+        <v>80.62</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7400000000000091</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="J30" t="n">
-        <v>0.21</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31">
@@ -1607,15 +1625,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>short</t>
@@ -1627,16 +1643,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2798.6</v>
+        <v>135.58</v>
       </c>
       <c r="H32" t="n">
-        <v>2790.45</v>
+        <v>135.34</v>
       </c>
       <c r="I32" t="n">
-        <v>8.150000000000091</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="J32" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="33">
@@ -1645,18 +1661,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1665,16 +1679,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2783.5</v>
+        <v>7009.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2786.35</v>
+        <v>7006.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.849999999999909</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
@@ -1683,18 +1697,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1703,16 +1715,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2776.05</v>
+        <v>937.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2783.9</v>
+        <v>935.8</v>
       </c>
       <c r="I34" t="n">
-        <v>7.849999999999909</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="J34" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="35">
@@ -1721,18 +1733,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1741,16 +1751,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>599.1</v>
+        <v>486.15</v>
       </c>
       <c r="H35" t="n">
-        <v>596.3</v>
+        <v>484.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.800000000000068</v>
+        <v>-1.649999999999977</v>
       </c>
       <c r="J35" t="n">
-        <v>0.47</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="36">
@@ -1765,9 +1775,7 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>long</t>
@@ -1779,16 +1787,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>594.1</v>
+        <v>589.9</v>
       </c>
       <c r="H36" t="n">
-        <v>594</v>
+        <v>588.8</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1000000000000227</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="37">
@@ -1797,15 +1805,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>short</t>
@@ -1817,52 +1823,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>595</v>
+        <v>80.77</v>
       </c>
       <c r="H37" t="n">
-        <v>593.6</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>1.399999999999977</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="J37" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>589.9</v>
-      </c>
-      <c r="H38" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-1.100000000000023</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-0.19</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,13 +1937,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2200000000000006</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07333333333333354</v>
+        <v>0.07333333333333296</v>
       </c>
       <c r="E4" t="n">
         <v>1.51</v>
@@ -2179,24 +2149,6 @@
       <c r="F13" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
